--- a/resources/Bookings.xlsx
+++ b/resources/Bookings.xlsx
@@ -977,7 +977,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Bookings.xlsx
+++ b/resources/Bookings.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Bookings" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>Status</t>
   </si>
@@ -146,6 +147,39 @@
   </si>
   <si>
     <t>Additional_service_Code</t>
+  </si>
+  <si>
+    <t>achadaluri</t>
+  </si>
+  <si>
+    <t>rbrad</t>
+  </si>
+  <si>
+    <t>matt</t>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
+  </si>
+  <si>
+    <t>SYD</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>Los Angeles, US</t>
+  </si>
+  <si>
+    <t>Anchorage, US</t>
+  </si>
+  <si>
+    <t>Honolulu, US</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>create_user</t>
   </si>
 </sst>
 </file>
@@ -630,8 +664,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,22 +1009,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1029,8 +1067,14 @@
       <c r="M1" t="s">
         <v>43</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15015</v>
       </c>
@@ -1043,6 +1087,9 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
@@ -1050,7 +1097,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>1000</v>
@@ -1067,8 +1114,14 @@
       <c r="M2" t="s">
         <v>37</v>
       </c>
+      <c r="N2" s="1">
+        <v>41651</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15016</v>
       </c>
@@ -1081,6 +1134,9 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
@@ -1102,8 +1158,14 @@
       <c r="L3" t="s">
         <v>34</v>
       </c>
+      <c r="N3" s="1">
+        <v>41652</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15017</v>
       </c>
@@ -1116,6 +1178,9 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
@@ -1137,8 +1202,14 @@
       <c r="L4" t="s">
         <v>35</v>
       </c>
+      <c r="N4" s="1">
+        <v>41653</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45014</v>
       </c>
@@ -1151,6 +1222,9 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
@@ -1172,8 +1246,14 @@
       <c r="L5" t="s">
         <v>36</v>
       </c>
+      <c r="N5" s="1">
+        <v>41654</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45017</v>
       </c>
@@ -1186,6 +1266,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
@@ -1207,8 +1290,14 @@
       <c r="L6" t="s">
         <v>33</v>
       </c>
+      <c r="N6" s="1">
+        <v>41655</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45018</v>
       </c>
@@ -1221,6 +1310,9 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
@@ -1228,7 +1320,7 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I7">
         <v>1000</v>
@@ -1242,8 +1334,14 @@
       <c r="L7" t="s">
         <v>33</v>
       </c>
+      <c r="N7" s="1">
+        <v>41656</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>45019</v>
       </c>
@@ -1256,6 +1354,9 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
@@ -1263,7 +1364,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>1000</v>
@@ -1277,8 +1378,14 @@
       <c r="L8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" s="1">
+        <v>41657</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45020</v>
       </c>
@@ -1291,6 +1398,9 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
@@ -1315,8 +1425,14 @@
       <c r="M9" t="s">
         <v>38</v>
       </c>
+      <c r="N9" s="1">
+        <v>41658</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>45021</v>
       </c>
@@ -1329,6 +1445,9 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
@@ -1350,8 +1469,14 @@
       <c r="L10" t="s">
         <v>33</v>
       </c>
+      <c r="N10" s="1">
+        <v>41659</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45022</v>
       </c>
@@ -1364,6 +1489,9 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
@@ -1384,6 +1512,12 @@
       </c>
       <c r="L11" t="s">
         <v>33</v>
+      </c>
+      <c r="N11" s="1">
+        <v>41660</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
